--- a/data/trans_dic/P19F$mañana-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19F$mañana-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3771763241740535</v>
+        <v>0.3816419087229933</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3444847893649377</v>
+        <v>0.3449277067343413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3747284902736615</v>
+        <v>0.3733127023243872</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4801700110498399</v>
+        <v>0.4765227908872552</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4443217086854833</v>
+        <v>0.444546728928137</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4468326795033676</v>
+        <v>0.4459214860558821</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.340343405578772</v>
+        <v>0.3425074671119209</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4035209629920734</v>
+        <v>0.4072092790105899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.385351104463255</v>
+        <v>0.383349495972906</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4256765666192069</v>
+        <v>0.4266098329942836</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4921173753610003</v>
+        <v>0.4928407468780776</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4471389119060405</v>
+        <v>0.4457813899226791</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2948942165279411</v>
+        <v>0.2940948598232153</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3484847634355681</v>
+        <v>0.3448613978587424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3314971303991626</v>
+        <v>0.3311453577173689</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3890110514044243</v>
+        <v>0.3913193242975643</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4521489199136972</v>
+        <v>0.4492928037460255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4012513064396955</v>
+        <v>0.4034631994934541</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.440044402218406</v>
+        <v>0.4461362675300285</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4945526868401642</v>
+        <v>0.4903814860512967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4794044113709495</v>
+        <v>0.4821478119831518</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5337469562614136</v>
+        <v>0.5363367913789574</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5932338116562185</v>
+        <v>0.5897331911760866</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5489526788988707</v>
+        <v>0.5504631565492342</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3855349886891102</v>
+        <v>0.3853216319728627</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4249159802387004</v>
+        <v>0.4257020485064478</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4129149843315915</v>
+        <v>0.4124085013228516</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4347903891678025</v>
+        <v>0.4324384805207487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.474251832940727</v>
+        <v>0.4752311125760187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4457652931124786</v>
+        <v>0.4456171745550681</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>136813</v>
+        <v>138433</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>129578</v>
+        <v>129745</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>276879</v>
+        <v>275833</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>174172</v>
+        <v>172849</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>167132</v>
+        <v>167216</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>330156</v>
+        <v>329482</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>191677</v>
+        <v>192896</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>218137</v>
+        <v>220131</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>425340</v>
+        <v>423131</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>239736</v>
+        <v>240262</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>266031</v>
+        <v>266422</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>493540</v>
+        <v>492041</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>118781</v>
+        <v>118459</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>133735</v>
+        <v>132345</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>260741</v>
+        <v>260464</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>156691</v>
+        <v>157621</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>173518</v>
+        <v>172422</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>315607</v>
+        <v>317346</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>198055</v>
+        <v>200797</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>218613</v>
+        <v>216769</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>427686</v>
+        <v>430134</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>240228</v>
+        <v>241394</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>262234</v>
+        <v>260686</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>489732</v>
+        <v>491079</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>685786</v>
+        <v>685406</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>740432</v>
+        <v>741802</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1454010</v>
+        <v>1452226</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>773401</v>
+        <v>769217</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>826402</v>
+        <v>828108</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1569686</v>
+        <v>1569165</v>
       </c>
     </row>
     <row r="24">
